--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/SVR/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/SVR/0.xlsx
@@ -1712,1144 +1712,1144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.1478872752566804</t>
+          <t>1.4268807265492955</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.2571331361008955</t>
+          <t>1.2707015677178553</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.2476415045404874</t>
+          <t>1.464754999888593</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.2034514576734885</t>
+          <t>1.2301876151125737</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.2571934791065198</t>
+          <t>1.2794899112129114</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.9821591538204519</t>
+          <t>0.9506921682005447</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.193697954169838</t>
+          <t>1.4142948998419238</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.925586462192237</t>
+          <t>0.968179171309193</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.257339303627388</t>
+          <t>1.312871941476333</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.2284074213292007</t>
+          <t>0.9126822412212949</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.9794941821895282</t>
+          <t>1.0407810029961904</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.2571331361008955</t>
+          <t>1.2345332081321536</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.2476415045404874</t>
+          <t>1.395897171363805</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.2034514576734885</t>
+          <t>1.2122084756192817</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.2571934791065198</t>
+          <t>1.2404705899042006</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.2012710454372002</t>
+          <t>1.3177319030123917</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9468099351765683</t>
+          <t>0.990893621876044</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.2291503408186073</t>
+          <t>0.9660671990262222</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.9786502083102828</t>
+          <t>1.0782572710206113</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1.0301843874387009</t>
+          <t>0.7773507403550799</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.8816505936546566</t>
+          <t>0.7702824740045897</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.0019009722742762</t>
+          <t>0.7784382485823236</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.2124075564462569</t>
+          <t>1.0689745438700649</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.2034514576734885</t>
+          <t>0.9695959767792215</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.2571934791065198</t>
+          <t>1.0983622153535235</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.9792167535033702</t>
+          <t>0.9002114797337959</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.193697954169838</t>
+          <t>1.091132479823106</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.9668307319736598</t>
+          <t>1.0787979936359566</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.257339303627388</t>
+          <t>0.9347197412641004</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.2284074213292007</t>
+          <t>1.2803952829049667</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.6086774902330934</t>
+          <t>0.9096012686341459</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.0003800482698804</t>
+          <t>0.8036474927670745</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.2476415045404874</t>
+          <t>1.214212350195329</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.138310295878363</t>
+          <t>1.1617012824165625</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.8776301905016206</t>
+          <t>0.7900993850264248</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.088084131215884</t>
+          <t>0.978054163290556</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.193697954169838</t>
+          <t>1.3896240139790061</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.2291503408186073</t>
+          <t>1.079910023832788</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.9795246628415821</t>
+          <t>0.9449524532466411</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.2284074213292007</t>
+          <t>1.3899691591305772</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.2571270881880867</t>
+          <t>1.030088723346148</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.0141152199978958</t>
+          <t>0.9184774706948011</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.9520749205487871</t>
+          <t>0.8386673662188797</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0888562277154612</t>
+          <t>1.0171650469334037</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.2571934791065198</t>
+          <t>1.3028095395598263</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.0502301650728232</t>
+          <t>0.6671283731695445</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.193697954169838</t>
+          <t>1.3249606491077979</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.2291503408186073</t>
+          <t>1.066114651664579</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.9112231278718763</t>
+          <t>0.7867163720576118</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1.0914916540960382</t>
+          <t>1.001477312276511</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.9373396353514085</t>
+          <t>1.083042222078022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.2571331361008955</t>
+          <t>1.050243127541298</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.8389181340350742</t>
+          <t>0.9768671772981539</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.2034514576734885</t>
+          <t>1.295927870112227</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.2571934791065198</t>
+          <t>1.0092947508918952</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.2012710454372002</t>
+          <t>1.310382637168336</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.193697954169838</t>
+          <t>1.2201899148996527</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.2291503408186073</t>
+          <t>1.304059129528214</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.257339303627388</t>
+          <t>1.3399721043575197</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.2284074213292007</t>
+          <t>1.2468293651042377</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.2571270881880867</t>
+          <t>1.0984410501395003</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.2571331361008955</t>
+          <t>1.01313294203158</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.46374308306925194</t>
+          <t>0.9190439929693688</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.2034514576734885</t>
+          <t>1.2798299308851608</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.9148784852813217</t>
+          <t>1.0296823352537408</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.0047782046573606</t>
+          <t>1.053502060972773</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.193697954169838</t>
+          <t>1.058959195145395</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.930505467097555</t>
+          <t>1.0030588714621134</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.257339303627388</t>
+          <t>1.0089048027136587</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.2284074213292007</t>
+          <t>1.2799679642752768</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.2571270881880867</t>
+          <t>1.3892953084282733</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.0003800482698804</t>
+          <t>0.793170461117048</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.2476415045404874</t>
+          <t>1.398023130530302</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.9595754934686844</t>
+          <t>0.813220900078353</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.9321935913698107</t>
+          <t>0.9218370942706875</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.9859175423245834</t>
+          <t>0.9463463198252788</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.193697954169838</t>
+          <t>1.3056714851745321</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.2291503408186073</t>
+          <t>1.2197906283208286</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.257339303627388</t>
+          <t>1.3887159548142203</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.942898448168882</t>
+          <t>0.979230107236835</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.8810433863706653</t>
+          <t>0.755870030484052</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.2571331361008955</t>
+          <t>1.0569179827640105</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9520749205487871</t>
+          <t>1.0343063256495486</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.0437736846934704</t>
+          <t>0.6726517478930885</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.2571934791065198</t>
+          <t>1.3028088957572577</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.2012710454372002</t>
+          <t>1.2342971536486806</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.193697954169838</t>
+          <t>1.0438392102054233</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.925586462192237</t>
+          <t>1.0167258243503605</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.257339303627388</t>
+          <t>1.0879189344180846</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1.0215505341331186</t>
+          <t>0.7609005524962431</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.2571270881880867</t>
+          <t>1.3330862694890082</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.2571331361008955</t>
+          <t>1.3812509374191015</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.9656392595855632</t>
+          <t>1.062432293315004</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.2034514576734885</t>
+          <t>1.308350493039701</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.2571934791065198</t>
+          <t>1.3463900592107676</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.2012710454372002</t>
+          <t>0.8243924006469405</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.9976685884986862</t>
+          <t>0.7968910479464777</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1.0548190087079035</t>
+          <t>0.7966826892022947</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.9466268165013769</t>
+          <t>1.0876959279156877</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.2284074213292007</t>
+          <t>1.3064925034124901</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.2571270881880867</t>
+          <t>1.3221417965395168</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.0141152199978958</t>
+          <t>0.9504979258910189</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.9520749205487871</t>
+          <t>0.9874023357962893</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.2034514576734885</t>
+          <t>1.2135234064738438</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.2571934791065198</t>
+          <t>1.4312097541212074</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.2012710454372002</t>
+          <t>1.0231340821291446</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.193697954169838</t>
+          <t>1.3507203901080838</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.2291503408186073</t>
+          <t>1.4690499286265364</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.257339303627388</t>
+          <t>1.2949286954404757</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.9621944304454848</t>
+          <t>1.0576135630419732</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.2571270881880867</t>
+          <t>1.064330497013653</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1.2571331361008955</t>
+          <t>0.9870052748451079</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.2476415045404874</t>
+          <t>1.0181505479835864</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.0888562277154612</t>
+          <t>0.9797066916647492</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.5111501955806412</t>
+          <t>0.9587961053456822</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.2012710454372002</t>
+          <t>1.2392129767811517</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.193697954169838</t>
+          <t>1.38151110978885</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.2291503408186073</t>
+          <t>1.458666965107298</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.110673497110069</t>
+          <t>1.161972026462289</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1.0914916540960382</t>
+          <t>1.0142458891811732</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.2571270881880867</t>
+          <t>1.3231305754532765</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.001185995305951</t>
+          <t>0.7738139012258691</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.2476415045404874</t>
+          <t>1.105611625767374</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.2034514576734885</t>
+          <t>1.0370366810680633</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.2571934791065198</t>
+          <t>1.2946534881642597</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.2012710454372002</t>
+          <t>1.3315997946161011</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.0180630675057536</t>
+          <t>1.0390087852257361</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.9365429132889331</t>
+          <t>1.000799556203223</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.257339303627388</t>
+          <t>1.1002438423093202</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.2284074213292007</t>
+          <t>1.1231563931879596</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.2571270881880867</t>
+          <t>1.36756020838753</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.2571331361008955</t>
+          <t>1.2954663013670902</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.2476415045404874</t>
+          <t>1.4119802263680268</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.2034514576734885</t>
+          <t>1.3573926337329465</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.9055870600998768</t>
+          <t>1.0490532584433316</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.2012710454372002</t>
+          <t>1.1868140205631597</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.8724098301974452</t>
+          <t>1.3184125612741904</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.2291503408186073</t>
+          <t>1.353513840603904</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.9066351626759239</t>
+          <t>0.7468838875865862</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.2284074213292007</t>
+          <t>1.3181917247054333</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.40466748921152096</t>
+          <t>0.9001488173176768</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.2571331361008955</t>
+          <t>1.3230690960649318</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.9624149986489154</t>
+          <t>0.6745614660370092</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.9764754555513029</t>
+          <t>0.9554709358396178</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.8973954269183944</t>
+          <t>0.9285698273238963</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.2012710454372002</t>
+          <t>0.9314872662054348</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.9415832864601839</t>
+          <t>1.0485863105502953</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.9244397840800729</t>
+          <t>1.059332629494011</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.1540780486977962</t>
+          <t>1.4224966546380637</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.2284074213292007</t>
+          <t>1.344259354825302</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.2571270881880867</t>
+          <t>1.3625978312943174</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.2571331361008955</t>
+          <t>1.1658729149029674</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.2476415045404874</t>
+          <t>1.0653290449316724</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.9595754934686844</t>
+          <t>0.8991340375389894</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.2571934791065198</t>
+          <t>1.4786361126130336</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.2012710454372002</t>
+          <t>1.2823068119508583</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.9425235150938199</t>
+          <t>0.8976857666844931</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.2291503408186073</t>
+          <t>1.2810931564078567</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.257339303627388</t>
+          <t>1.4696997531541565</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1.0914916540960382</t>
+          <t>0.8745403873970237</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.9794941821895282</t>
+          <t>0.994031914658748</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.9971949840378951</t>
+          <t>0.9203390139438077</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.9697021124305447</t>
+          <t>0.9276169771879368</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.2034514576734885</t>
+          <t>1.3471845436050427</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.09613026307946</t>
+          <t>1.1482351746541346</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.9847275409665148</t>
+          <t>1.0131735835543743</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.193697954169838</t>
+          <t>1.296018194823237</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.2291503408186073</t>
+          <t>1.0302937011275382</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.257339303627388</t>
+          <t>1.3128772536866313</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.1398353925019569</t>
+          <t>1.1506043169282567</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.2571270881880867</t>
+          <t>1.3223568891678616</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.2571331361008955</t>
+          <t>1.0641529646350754</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.2476415045404874</t>
+          <t>1.0419065202886597</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.972003087469951</t>
+          <t>0.9824412077880891</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.9321935913698107</t>
+          <t>0.9785303181960912</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.2012710454372002</t>
+          <t>1.3976870847813365</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.193697954169838</t>
+          <t>1.366581486170663</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.2291503408186073</t>
+          <t>1.0666991322128563</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.9314464332139902</t>
+          <t>0.6963886585258463</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.2284074213292007</t>
+          <t>1.3134280007160346</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.2571270881880867</t>
+          <t>1.0519141250829036</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.2571331361008955</t>
+          <t>1.2821316449425146</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.9520749205487871</t>
+          <t>1.028241765486698</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.9898633224967532</t>
+          <t>1.0487789387173518</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.8976091360788567</t>
+          <t>1.0780448766121842</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.2012710454372002</t>
+          <t>1.268702584938962</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.193697954169838</t>
+          <t>1.3060623996753586</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.9425830333266219</t>
+          <t>1.0229779928207423</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1.257339303627388</t>
+          <t>0.8822208342603821</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>1.0215505341331186</t>
+          <t>0.7722793597293152</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.9538685659670012</t>
+          <t>1.0212345568187877</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.2571331361008955</t>
+          <t>1.3329768229253935</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.2476415045404874</t>
+          <t>1.3612106952374474</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.2034514576734885</t>
+          <t>1.289140068152197</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.7340708259630597</t>
+          <t>0.9887098390334315</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.0594546448659419</t>
+          <t>0.6899299687629088</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.0015105690907466</t>
+          <t>0.8801631713252258</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.2291503408186073</t>
+          <t>1.2810926647772969</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.257339303627388</t>
+          <t>1.4780869324975863</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.2284074213292007</t>
+          <t>1.2043361793269771</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.9658667494597086</t>
+          <t>1.017138903311373</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.2571331361008955</t>
+          <t>1.3884561471451682</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.9697021124305447</t>
+          <t>0.8923702451585735</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.0097157607523506</t>
+          <t>0.6045967402149484</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.2571934791065198</t>
+          <t>1.0222844533411666</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.2012710454372002</t>
+          <t>1.2296930215269533</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.193697954169838</t>
+          <t>1.1581431932551036</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.2291503408186073</t>
+          <t>1.0082816180072423</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.4702725015563498</t>
+          <t>0.9033251076430189</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>1.2284074213292007</t>
+          <t>0.8806582630669813</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.2571270881880867</t>
+          <t>1.4244172977922527</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.2571331361008955</t>
+          <t>1.3028794656886524</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.2476415045404874</t>
+          <t>1.3047870182308334</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.2034514576734885</t>
+          <t>0.8191331252637934</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.2571934791065198</t>
+          <t>1.0479043380532735</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.2012710454372002</t>
+          <t>1.325780163471753</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.193697954169838</t>
+          <t>1.469147302034646</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.2291503408186073</t>
+          <t>1.3347023266230313</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.257339303627388</t>
+          <t>1.322563135550196</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.2284074213292007</t>
+          <t>1.3315432319856104</t>
         </is>
       </c>
     </row>
@@ -2892,170 +2892,170 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.19744015307473534</t>
+          <t>0.05516367509809611</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.2644624095332627</t>
+          <t>0.09800170803222898</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.2652514252960596</t>
+          <t>0.8262534363036911</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.20801652930690215</t>
+          <t>0.07494154725446078</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.1975944445053969</t>
+          <t>0.05626516904510588</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.36649679398809976</t>
+          <t>0.9486336610499131</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.21869598692838074</t>
+          <t>0.05851348886220009</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.2233113661187372</t>
+          <t>0.08427463415965969</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0030398751328551965</t>
+          <t>0.8580125749391114</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.23232751065541052</t>
+          <t>0.07282852907153552</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.18793189731428367</t>
+          <t>0.07448906623742979</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.3569859098466167</t>
+          <t>0.8989806538236609</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.22147846084226028</t>
+          <t>0.06761827283745196</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.22081363625993708</t>
+          <t>0.07892178523800909</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.36939673484073277</t>
+          <t>0.8250671748435063</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.22168260952488844</t>
+          <t>0.0676632950026118</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.18288630346945842</t>
+          <t>0.06651616056752144</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.29727950839963546</t>
+          <t>0.9070446051427205</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.21674953325243568</t>
+          <t>0.07456921284105278</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.20634493484886338</t>
+          <t>0.06927048726579071</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.21977375644668395</t>
+          <t>0.9120715507455917</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.22149429268079418</t>
+          <t>0.07446942018783928</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.19000790909724213</t>
+          <t>0.0609450240511826</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.11200295458590892</t>
+          <t>0.9086424028195765</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.19287545627416142</t>
+          <t>0.06255957520749192</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.2600689112752507</t>
+          <t>0.08003814132670761</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.01295836374104109</t>
+          <t>0.9040580138152312</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.20943671057086424</t>
+          <t>0.06510540557030134</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.22467858006087416</t>
+          <t>0.0892410042403685</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.2586834793254196</t>
+          <t>0.8830475739234014</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/SVR/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/SVR/0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVR-values" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVR-predicts" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SVR-10" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="SVR-values" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SVR-predicts" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SVR-10" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -47,15 +47,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -424,7 +424,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -497,349 +497,349 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.830078125</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.357421875</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.23046875</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.298828125</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.005859375</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>0.87890625</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>1.435546875</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.298828125</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.849609375</t>
+          <t>1.46484375</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>0.693359375</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.259765625</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.46484375</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.171875</t>
+          <t>1.083984375</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.396484375</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.947265625</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>1.23046875</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>1.435546875</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>1.513671875</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.72265625</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>0.68359375</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1.103515625</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.015625</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>1.34765625</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>1.083984375</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.966796875</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>1.298828125</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.849609375</t>
+          <t>1.6015625</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.455078125</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.09375</t>
+          <t>1.6015625</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>0.91796875</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.2109375</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>0.72265625</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.26953125</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.240234375</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.703125</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3671875</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.15234375</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.328125</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.455078125</t>
+          <t>1.005859375</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>1.064453125</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.07421875</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.830078125</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>1.005859375</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.87890625</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.80078125</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.91796875</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.703125</t>
+          <t>1.09375</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.328125</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.044921875</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.72265625</t>
+          <t>1.298828125</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.455078125</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>0.673828125</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>0.986328125</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.171875</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.201171875</t>
+          <t>1.025390625</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.46484375</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>0.68359375</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>0.91796875</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.673828125</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>1.23046875</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -849,455 +849,455 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1.484375</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.91796875</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.103515625</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.064453125</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.34765625</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>0.703125</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1.455078125</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.87890625</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.87890625</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.015625</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.298828125</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.103515625</t>
+          <t>1.220703125</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1.025390625</t>
+          <t>1.50390625</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>0.869140625</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>0.966796875</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>1.259765625</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.2109375</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.99609375</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.201171875</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.376953125</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.3671875</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>0.91796875</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.703125</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.220703125</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.2109375</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.044921875</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>1.025390625</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1.083984375</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.72265625</t>
+          <t>0.908203125</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.435546875</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>1.083984375</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>1.435546875</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1.0546875</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.15234375</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.849609375</t>
+          <t>1.6015625</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>1.015625</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>0.830078125</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.986328125</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.474609375</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>0.849609375</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.07421875</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.201171875</t>
+          <t>1.044921875</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>1.435546875</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>0.966796875</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.513671875</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.220703125</t>
+          <t>1.015625</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.68359375</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>1.11328125</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.357421875</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.15234375</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.34765625</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.0546875</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.830078125</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.91796875</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1.357421875</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>0.908203125</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.947265625</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.99609375</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.908203125</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.2109375</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.201171875</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.455078125</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>1.50390625</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1.240234375</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.791015625</t>
+          <t>1.064453125</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>0.947265625</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.673828125</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>1.11328125</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.298828125</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.259765625</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1.103515625</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.083984375</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.298828125</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.357421875</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.2109375</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>0.986328125</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>1.015625</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1.083984375</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0.908203125</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.46484375</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>1.30859375</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.015625</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>0.80078125</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>0.64453125</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.30859375</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.09375</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>0.791015625</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.240234375</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>1.201171875</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>1.2109375</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1.34765625</t>
-        </is>
-      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.005859375</t>
+          <t>1.15234375</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.791015625</t>
+          <t>0.91796875</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>1.46484375</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>0.693359375</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.376953125</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.30859375</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>0.78125</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.15234375</t>
+          <t>1.044921875</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>1.0546875</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>1.09375</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.966796875</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>1.376953125</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1307,339 +1307,339 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.87890625</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>0.908203125</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.80078125</t>
+          <t>0.693359375</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.171875</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.830078125</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.34765625</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>1.09375</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>1.474609375</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.240234375</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.07421875</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>0.791015625</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.201171875</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>0.72265625</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.240234375</t>
+          <t>1.09375</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.0546875</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>1.064453125</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0546875</t>
+          <t>1.513671875</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.455078125</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.455078125</t>
+          <t>1.015625</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>1.220703125</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.09375</t>
+          <t>1.357421875</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>1.513671875</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.19140625</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.474609375</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.220703125</t>
+          <t>0.869140625</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.396484375</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.830078125</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>0.791015625</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>1.328125</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1.455078125</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>1.044921875</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.869140625</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0.703125</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>1.201171875</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>1.005859375</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1.357421875</t>
-        </is>
-      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>1.435546875</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.947265625</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.791015625</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.80078125</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1.025390625</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>1.50390625</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1.07421875</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.693359375</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.78125</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>1.220703125</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1.513671875</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>1.103515625</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.357421875</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>1.201171875</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.298828125</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>1.455078125</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0.87890625</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.64453125</t>
-        </is>
-      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.99609375</t>
+          <t>1.435546875</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.103515625</t>
+          <t>1.3671875</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.15234375</t>
+          <t>1.513671875</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.99609375</t>
+          <t>1.46484375</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>1.484375</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.869140625</t>
+          <t>0.830078125</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.396484375</t>
+          <t>0.80078125</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.19140625</t>
+          <t>0.87890625</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.849609375</t>
+          <t>0.80078125</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.025390625</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>1.103515625</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.673828125</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.259765625</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.80078125</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.46484375</t>
+          <t>1.07421875</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1712,1149 +1712,1149 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.4268807265492955</t>
+          <t>1.1079871793067397</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.2707015677178553</t>
+          <t>1.1864375742868192</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.464754999888593</t>
+          <t>0.975940570141592</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.2301876151125737</t>
+          <t>1.018388201429622</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.2794899112129114</t>
+          <t>0.9645682977457805</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.9506921682005447</t>
+          <t>1.2687399934630805</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4142948998419238</t>
+          <t>1.1939736998605526</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.968179171309193</t>
+          <t>1.2718485413519574</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.312871941476333</t>
+          <t>1.0474425895142323</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.9126822412212949</t>
+          <t>1.1629562826615398</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.0407810029961904</t>
+          <t>1.0829896164056905</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.2345332081321536</t>
+          <t>1.1093144829756896</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.395897171363805</t>
+          <t>1.0140121618873257</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.2122084756192817</t>
+          <t>1.018322527366158</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.2404705899042006</t>
+          <t>1.2033509659611306</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.3177319030123917</t>
+          <t>0.9720947176064898</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.990893621876044</t>
+          <t>1.1868434988548728</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.9660671990262222</t>
+          <t>1.2718485413519574</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.0782572710206113</t>
+          <t>0.9889070617599094</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.7773507403550799</t>
+          <t>1.1197409870800783</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.7702824740045897</t>
+          <t>1.2085879660804437</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.7784382485823236</t>
+          <t>1.210791250462853</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.0689745438700649</t>
+          <t>0.9222947860341895</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.9695959767792215</t>
+          <t>0.9948216915127677</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.0983622153535235</t>
+          <t>1.2033509659611306</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.9002114797337959</t>
+          <t>1.2771097278213916</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.091132479823106</t>
+          <t>1.1773428959153052</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.0787979936359566</t>
+          <t>1.0150109848375024</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.9347197412641004</t>
+          <t>1.004528690957847</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1.2803952829049667</t>
+          <t>1.1937506405794664</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.9096012686341459</t>
+          <t>1.1214699070588523</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.8036474927670745</t>
+          <t>1.1093144829756896</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.214212350195329</t>
+          <t>0.9810383499442599</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.1617012824165625</t>
+          <t>1.0290425748265324</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.7900993850264248</t>
+          <t>0.9489781026588512</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.978054163290556</t>
+          <t>1.0180792146969482</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3896240139790061</t>
+          <t>1.0104939893533669</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.079910023832788</t>
+          <t>1.1907051288787898</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.9449524532466411</t>
+          <t>1.0260980659951136</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.3899691591305772</t>
+          <t>1.0905883322591237</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.030088723346148</t>
+          <t>1.0795034678184265</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.9184774706948011</t>
+          <t>1.2476657868936045</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.8386673662188797</t>
+          <t>0.9500127950702966</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.0171650469334037</t>
+          <t>0.9730090150073198</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.3028095395598263</t>
+          <t>1.065136959324159</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.6671283731695445</t>
+          <t>1.2771097278213916</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.3249606491077979</t>
+          <t>1.1939736998605526</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.066114651664579</t>
+          <t>0.9734192335616143</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.7867163720576118</t>
+          <t>1.0715676098749247</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1.001477312276511</t>
+          <t>1.1937506405794664</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.083042222078022</t>
+          <t>1.1093093290801121</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.050243127541298</t>
+          <t>1.0530891839401648</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9768671772981539</t>
+          <t>1.2614755483198399</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.295927870112227</t>
+          <t>1.2765387030656388</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.0092947508918952</t>
+          <t>0.9349677159404545</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.310382637168336</t>
+          <t>0.9708403011798425</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.2201899148996527</t>
+          <t>1.1939736998605526</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.304059129528214</t>
+          <t>1.2718485413519574</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.3399721043575197</t>
+          <t>1.0714731286262724</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1.2468293651042377</t>
+          <t>1.0757348033262204</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.0984410501395003</t>
+          <t>1.175671365736271</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.01313294203158</t>
+          <t>1.0517016097401908</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.9190439929693688</t>
+          <t>1.245146252608709</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.2798299308851608</t>
+          <t>1.0615048242200718</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.0296823352537408</t>
+          <t>1.2033509659611306</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.053502060972773</t>
+          <t>0.9998052561460129</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.058959195145395</t>
+          <t>0.9875681563891334</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.0030588714621134</t>
+          <t>0.9778814046666895</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.0089048027136587</t>
+          <t>1.0066611701722925</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1.2799679642752768</t>
+          <t>1.1937506405794664</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.3892953084282733</t>
+          <t>1.0804738228036967</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.793170461117048</t>
+          <t>1.2384445056972653</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.398023130530302</t>
+          <t>1.245146252608709</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.813220900078353</t>
+          <t>1.2765387030656388</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.9218370942706875</t>
+          <t>0.9926442221928179</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.9463463198252788</t>
+          <t>1.2771097278213916</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.3056714851745321</t>
+          <t>0.9521214843622119</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.2197906283208286</t>
+          <t>1.0001345172337892</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.3887159548142203</t>
+          <t>1.157115084806441</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.979230107236835</t>
+          <t>1.1814301548410526</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.755870030484052</t>
+          <t>1.1034232290304544</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.0569179827640105</t>
+          <t>1.2410322224856842</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.0343063256495486</t>
+          <t>1.0497771140953949</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.6726517478930885</t>
+          <t>1.2072586588648153</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.3028088957572577</t>
+          <t>1.127011381989599</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.2342971536486806</t>
+          <t>1.03231665225986</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.0438392102054233</t>
+          <t>1.1939736998605526</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.0167258243503605</t>
+          <t>1.1554346971063154</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.0879189344180846</t>
+          <t>1.0715676098749247</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.7609005524962431</t>
+          <t>1.1937506405794664</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.3330862694890082</t>
+          <t>1.2085879660804437</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.3812509374191015</t>
+          <t>1.2433817466308228</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.062432293315004</t>
+          <t>1.0220431532355752</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.308350493039701</t>
+          <t>0.9746477451834241</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.3463900592107676</t>
+          <t>0.9066692539820261</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.8243924006469405</t>
+          <t>1.0846922621586488</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.7968910479464777</t>
+          <t>1.0486864285238113</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.7966826892022947</t>
+          <t>1.0265047791302209</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.0876959279156877</t>
+          <t>1.1123091423449898</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.3064925034124901</t>
+          <t>1.1937506405794664</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.3221417965395168</t>
+          <t>1.2085879660804437</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.9504979258910189</t>
+          <t>1.2338445486128706</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.9874023357962893</t>
+          <t>1.2770685219960176</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.2135234064738438</t>
+          <t>0.9933543871084172</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.4312097541212074</t>
+          <t>1.0078558336582781</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.0231340821291446</t>
+          <t>1.26593329181774</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.3507203901080838</t>
+          <t>1.1939736998605526</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.4690499286265364</t>
+          <t>1.046497997486469</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.2949286954404757</t>
+          <t>1.0380976139741227</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1.0576135630419732</t>
+          <t>1.0712916350486523</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.064330497013653</t>
+          <t>1.095007524760618</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.9870052748451079</t>
+          <t>1.1093144829756896</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.0181505479835864</t>
+          <t>0.9547075751315395</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.9797066916647492</t>
+          <t>1.0641939543193917</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.9587961053456822</t>
+          <t>0.9645682977457805</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.2392129767811517</t>
+          <t>1.0479448178592123</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.38151110978885</t>
+          <t>1.1028132542955433</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.458666965107298</t>
+          <t>1.0150109848375024</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1.161972026462289</t>
+          <t>1.1937479895569743</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1.0142458891811732</t>
+          <t>1.0677501812128298</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.3231305754532765</t>
+          <t>1.137552078524159</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.7738139012258691</t>
+          <t>1.2476657868936045</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.105611625767374</t>
+          <t>0.9369356975715168</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.0370366810680633</t>
+          <t>1.2765387030656388</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.2946534881642597</t>
+          <t>1.0664647451751912</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.3315997946161011</t>
+          <t>1.0646382756989767</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.0390087852257361</t>
+          <t>1.0285517084062434</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1.000799556203223</t>
+          <t>1.1006668427616546</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.1002438423093202</t>
+          <t>1.0029864629489316</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.1231563931879596</t>
+          <t>1.1037250978356141</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.36756020838753</t>
+          <t>1.2085879660804437</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.2954663013670902</t>
+          <t>1.2476657868936045</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.4119802263680268</t>
+          <t>1.2770685219960176</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.3573926337329465</t>
+          <t>1.0546852387247287</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.0490532584433316</t>
+          <t>1.2507535817172575</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.1868140205631597</t>
+          <t>0.9985420832929266</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.3184125612741904</t>
+          <t>1.1687134271392978</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.353513840603904</t>
+          <t>1.2718485413519574</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.7468838875865862</t>
+          <t>1.0715676098749247</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1.3181917247054333</t>
+          <t>1.1937506405794664</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.9001488173176768</t>
+          <t>1.10417894498908</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.3230690960649318</t>
+          <t>1.0896755674022018</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.6745614660370092</t>
+          <t>1.245146252608709</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.9554709358396178</t>
+          <t>1.2114831172636034</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.9285698273238963</t>
+          <t>1.2079341832217474</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.9314872662054348</t>
+          <t>1.1968537827408967</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.0485863105502953</t>
+          <t>1.0127387588545134</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.059332629494011</t>
+          <t>0.9614542107387507</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.4224966546380637</t>
+          <t>1.1937479895569743</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.344259354825302</t>
+          <t>1.1937506405794664</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.3625978312943174</t>
+          <t>1.0764020158374947</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.1658729149029674</t>
+          <t>1.0466104659320608</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1.0653290449316724</t>
+          <t>1.2770685219960176</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.8991340375389894</t>
+          <t>1.2765387030656388</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.4786361126130336</t>
+          <t>1.2033509659611306</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.2823068119508583</t>
+          <t>1.018142404943285</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.8976857666844931</t>
+          <t>1.1939736998605526</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.2810931564078567</t>
+          <t>1.2718485413519574</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.4696997531541565</t>
+          <t>1.1937479895569743</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.8745403873970237</t>
+          <t>1.0704796861977925</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.994031914658748</t>
+          <t>1.2085879660804437</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.9203390139438077</t>
+          <t>1.1086634050139978</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.9276169771879368</t>
+          <t>1.2770685219960176</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.3471845436050427</t>
+          <t>1.2765387030656388</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.1482351746541346</t>
+          <t>1.2182134890626863</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.0131735835543743</t>
+          <t>1.2771097278213916</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.296018194823237</t>
+          <t>1.1028132542955433</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.0302937011275382</t>
+          <t>1.0126160575879481</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.3128772536866313</t>
+          <t>0.9546015968626724</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>1.1506043169282567</t>
+          <t>1.1937506405794664</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.3223568891678616</t>
+          <t>1.2085879660804437</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.0641529646350754</t>
+          <t>1.0402895906511191</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.0419065202886597</t>
+          <t>1.2735814555059795</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.9824412077880891</t>
+          <t>1.2021803880281385</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.9785303181960912</t>
+          <t>1.2033509659611306</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.3976870847813365</t>
+          <t>1.0575676930021218</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.366581486170663</t>
+          <t>0.9883456872786127</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1.0666991322128563</t>
+          <t>1.0586964897537854</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.6963886585258463</t>
+          <t>1.1611801354054085</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.3134280007160346</t>
+          <t>1.099652166218668</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.0519141250829036</t>
+          <t>1.1888226452210944</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.2821316449425146</t>
+          <t>1.077866169064896</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.028241765486698</t>
+          <t>1.2763354823217588</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.0487789387173518</t>
+          <t>1.0480934088437042</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.0780448766121842</t>
+          <t>1.2507535817172575</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.268702584938962</t>
+          <t>0.9962117789408695</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.3060623996753586</t>
+          <t>0.9580286854206037</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.0229779928207423</t>
+          <t>1.0228481177940978</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.8822208342603821</t>
+          <t>1.1937479895569743</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.7722793597293152</t>
+          <t>1.074109287875281</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.0212345568187877</t>
+          <t>1.1096329537829064</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.3329768229253935</t>
+          <t>1.0387875328341267</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.3612106952374474</t>
+          <t>1.2770685219960176</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.289140068152197</t>
+          <t>1.112924976097253</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.9887098390334315</t>
+          <t>1.2161207004361878</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.6899299687629088</t>
+          <t>1.018142404943285</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.8801631713252258</t>
+          <t>1.1028132542955433</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.2810926647772969</t>
+          <t>1.2630694221016796</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1.4780869324975863</t>
+          <t>1.1774775470896293</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1.2043361793269771</t>
+          <t>1.107267248781632</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.017138903311373</t>
+          <t>1.126494018551064</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.3884561471451682</t>
+          <t>1.0793029907114176</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.8923702451585735</t>
+          <t>1.245146252608709</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.6045967402149484</t>
+          <t>1.2765387030656388</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.0222844533411666</t>
+          <t>1.2033509659611306</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.2296930215269533</t>
+          <t>1.1724519263221056</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.1581431932551036</t>
+          <t>1.1716079999096707</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.0082816180072423</t>
+          <t>1.1863790911906733</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.9033251076430189</t>
+          <t>1.1856035052356182</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.8806582630669813</t>
+          <t>1.0938235654580453</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.4244172977922527</t>
+          <t>1.1096673784829818</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1.3028794656886524</t>
+          <t>1.0490720851697959</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1.3047870182308334</t>
+          <t>1.2768126866067069</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.8191331252637934</t>
+          <t>1.018388201429622</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.0479043380532735</t>
+          <t>0.9454152637888692</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.325780163471753</t>
+          <t>1.2771097278213916</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.469147302034646</t>
+          <t>0.9666404232115469</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.3347023266230313</t>
+          <t>0.9896035440197011</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1.322563135550196</t>
+          <t>1.0715676098749247</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.3315432319856104</t>
+          <t>1.1937506405794664</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2892,174 +2892,174 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.05516367509809611</t>
+          <t>0.23165700448796006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.09800170803222898</t>
+          <t>0.24204828384637114</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8262534363036911</t>
+          <t>0.11461717271139249</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.07494154725446078</t>
+          <t>0.2317434055421575</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.05626516904510588</t>
+          <t>0.2247606514158015</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.9486336610499131</t>
+          <t>0.07871067000660803</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0.05851348886220009</t>
+          <t>0.23022199684879627</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.08427463415965969</t>
+          <t>0.2408434549818497</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.8580125749391114</t>
+          <t>-0.3347805797994501</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.07282852907153552</t>
+          <t>0.2378057274886764</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.07448906623742979</t>
+          <t>0.19369961849924125</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.8989806538236609</t>
+          <t>0.21652839312422212</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.06761827283745196</t>
+          <t>0.23167786864560438</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.07892178523800909</t>
+          <t>0.24861494686953617</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.8250671748435063</t>
+          <t>-0.1466049504353173</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.0676632950026118</t>
+          <t>0.21409697101642822</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.06651616056752144</t>
+          <t>0.24316844849879063</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.9070446051427205</t>
+          <t>0.12194192187163</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.07456921284105278</t>
+          <t>0.22158032941018702</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.06927048726579071</t>
+          <t>0.227957165334699</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.9120715507455917</t>
+          <t>0.20354524233346027</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.07446942018783928</t>
+          <t>0.2196576802056235</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.0609450240511826</t>
+          <t>0.22410148109162445</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.9086424028195765</t>
+          <t>-0.2508804257857067</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.06255957520749192</t>
+          <t>0.21203996523744237</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.08003814132670761</t>
+          <t>0.2692453480846362</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9040580138152312</t>
+          <t>-0.05951458999231907</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.06510540557030134</t>
+          <t>0.24291937548579884</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.0892410042403685</t>
+          <t>0.21887377448272677</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.8830475739234014</t>
+          <t>0.22138648537695482</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/SVR/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/SVR/0.xlsx
@@ -452,14 +452,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.673828125</t>
         </is>
       </c>
     </row>
@@ -473,133 +473,133 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>0.986328125</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.673828125</t>
+          <t>1.240234375</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>0.869140625</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.171875</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>1.083984375</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>1.064453125</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.703125</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0.908203125</t>
+          <t>1.220703125</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>0.64453125</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.005859375</t>
+          <t>1.26953125</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.791015625</t>
+          <t>1.6015625</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.34765625</t>
+          <t>1.11328125</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.15234375</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.830078125</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.23046875</t>
+          <t>0.68359375</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.259765625</t>
+          <t>0.99609375</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>1.513671875</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>1.15234375</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.2109375</t>
+          <t>1.30859375</t>
         </is>
       </c>
     </row>
@@ -632,154 +632,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.269472041766324</t>
+          <t>1.1685100464155505</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.290536536185403</t>
+          <t>0.9738961294745417</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.322870356482941</t>
+          <t>1.1685100464155505</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.2957922455609214</t>
+          <t>0.9889484462653565</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.9449227263751858</t>
+          <t>1.0735943265055021</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.1546763461722556</t>
+          <t>0.9888992959236896</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.1546763461722556</t>
+          <t>1.1029048151381908</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.1546763461722556</t>
+          <t>1.2199207801911194</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.1546763461722556</t>
+          <t>0.9638787552212472</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.290536536185403</t>
+          <t>0.9653602121256762</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.1546763461722556</t>
+          <t>1.1267291520955802</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1.1546763461722556</t>
+          <t>0.9802446170429443</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.1546763461722556</t>
+          <t>1.3577072765039042</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.1546763461722556</t>
+          <t>1.2242900223072462</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.1546763461722556</t>
+          <t>0.9963124841661989</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.1546763461722556</t>
+          <t>1.1521358860428443</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.1546763461722556</t>
+          <t>1.2770744206374922</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.1546763461722556</t>
+          <t>0.9645565601794482</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.3158954734956332</t>
+          <t>0.9889975965795538</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.327224726414446</t>
+          <t>1.336247154731128</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.9449227263751858</t>
+          <t>1.2200778223273852</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.3446019231434327</t>
+          <t>1.1685100464155505</t>
         </is>
       </c>
     </row>
@@ -822,17 +822,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.19485357291517597</t>
+          <t>0.1674927135715533</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.20180212107507614</t>
+          <t>0.20852984310871434</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.3529628980796726</t>
+          <t>0.39872514171823703</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/SVR/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/SVR/0.xlsx
@@ -452,154 +452,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.673828125</t>
+          <t>1.11328125</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.986328125</t>
+          <t>1.015625</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.240234375</t>
+          <t>0.91796875</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.869140625</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.171875</t>
+          <t>1.083984375</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.044921875</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.064453125</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.703125</t>
+          <t>0.78125</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.220703125</t>
+          <t>1.259765625</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>0.80078125</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.26953125</t>
+          <t>1.30859375</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.6015625</t>
+          <t>1.50390625</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>0.693359375</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.435546875</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.830078125</t>
+          <t>1.298828125</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.68359375</t>
+          <t>1.474609375</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.99609375</t>
+          <t>1.240234375</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.513671875</t>
+          <t>0.64453125</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.15234375</t>
+          <t>0.966796875</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.30859375</t>
+          <t>1.083984375</t>
         </is>
       </c>
     </row>
@@ -632,154 +632,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.1685100464155505</t>
+          <t>1.3621824431138967</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.9738961294745417</t>
+          <t>0.9266841774791834</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.1685100464155505</t>
+          <t>1.3046677904221176</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0.9889484462653565</t>
+          <t>1.019508598036689</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.0735943265055021</t>
+          <t>0.993806029038</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0.9888992959236896</t>
+          <t>1.3399995143369188</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.1029048151381908</t>
+          <t>1.456652148005981</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.2199207801911194</t>
+          <t>0.9232703494189585</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0.9638787552212472</t>
+          <t>1.3046677904221176</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.9653602121256762</t>
+          <t>0.9821389462195376</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.1267291520955802</t>
+          <t>1.3046677904221176</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.9802446170429443</t>
+          <t>0.993806029038</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.3577072765039042</t>
+          <t>1.3046677904221176</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.2242900223072462</t>
+          <t>1.5010770925478758</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.9963124841661989</t>
+          <t>0.9805255889396085</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.1521358860428443</t>
+          <t>1.4243461736875267</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.2770744206374922</t>
+          <t>1.4190880994507344</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.9645565601794482</t>
+          <t>1.5022363506570093</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.9889975965795538</t>
+          <t>0.9858775806182811</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1.336247154731128</t>
+          <t>0.9925580931241831</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1.2200778223273852</t>
+          <t>0.9789553388255803</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.1685100464155505</t>
+          <t>1.0494827219273566</t>
         </is>
       </c>
     </row>
@@ -822,17 +822,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.1674927135715533</t>
+          <t>0.13193684586576654</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.20852984310871434</t>
+          <t>0.16091643202661213</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.39872514171823703</t>
+          <t>0.5976950055788712</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/SVR/0.xlsx
+++ b/src/main/resources/python/MultifacetedModeling/Results/OnTrain/KnowledgeKernel/SVR/0.xlsx
@@ -452,154 +452,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>0.91796875</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1.11328125</t>
+          <t>1.025390625</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.26953125</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.015625</t>
+          <t>1.103515625</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.91796875</t>
+          <t>1.50390625</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.357421875</t>
+          <t>1.298828125</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>0.68359375</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1.044921875</t>
+          <t>0.703125</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.376953125</t>
+          <t>1.50390625</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.78125</t>
+          <t>1.015625</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.259765625</t>
+          <t>1.005859375</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.80078125</t>
+          <t>1.34765625</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.30859375</t>
+          <t>0.91796875</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.50390625</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.693359375</t>
+          <t>1.357421875</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.435546875</t>
+          <t>1.376953125</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.298828125</t>
+          <t>0.80078125</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.474609375</t>
+          <t>0.908203125</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1.240234375</t>
+          <t>0.966796875</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.64453125</t>
+          <t>1.474609375</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.966796875</t>
+          <t>1.005859375</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.083984375</t>
+          <t>1.435546875</t>
         </is>
       </c>
     </row>
@@ -632,154 +632,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1.3621824431138967</t>
+          <t>0.8183951364669182</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0.9266841774791834</t>
+          <t>0.9785530582646798</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.3046677904221176</t>
+          <t>1.2074569167896525</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1.019508598036689</t>
+          <t>1.1322920884125478</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0.993806029038</t>
+          <t>1.2914433698693981</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.3399995143369188</t>
+          <t>1.2074569167896525</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.456652148005981</t>
+          <t>0.7996349358906725</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0.9232703494189585</t>
+          <t>0.8219905184933365</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.3046677904221176</t>
+          <t>1.2074569167896525</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0.9821389462195376</t>
+          <t>1.259998330113319</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1.3046677904221176</t>
+          <t>0.9436857589467491</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.993806029038</t>
+          <t>1.2074569167896525</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1.3046677904221176</t>
+          <t>0.9785530582646798</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1.5010770925478758</t>
+          <t>1.259998330113319</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.9805255889396085</t>
+          <t>1.2074569167896525</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1.4243461736875267</t>
+          <t>1.2074569167896525</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1.4190880994507344</t>
+          <t>0.8183951364669182</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1.5022363506570093</t>
+          <t>1.2074569167896525</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.9858775806182811</t>
+          <t>0.9785530582646798</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.9925580931241831</t>
+          <t>1.28097006326859</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.9789553388255803</t>
+          <t>1.2074569167896525</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.0494827219273566</t>
+          <t>1.259998330113319</t>
         </is>
       </c>
     </row>
@@ -822,17 +822,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0.13193684586576654</t>
+          <t>0.1749665500995961</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.16091643202661213</t>
+          <t>0.15555359286081333</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.5976950055788712</t>
+          <t>0.6358919919046235</t>
         </is>
       </c>
     </row>
